--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/CorruptionWomen/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{983826D5-0E05-8E41-8929-9B3C307BB5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F3199-B4C8-1447-A55B-AC65F7125808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{0D669908-7E1C-2641-B134-8DCA32760066}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>0.000***</t>
   </si>
@@ -190,13 +190,19 @@
   <si>
     <t>0.674***</t>
   </si>
+  <si>
+    <t>Informal</t>
+  </si>
+  <si>
+    <t>0.159**</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -286,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,16 +310,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E455FB9-0662-344D-8D20-0B93894C496E}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,35 +673,36 @@
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="9"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -702,821 +715,859 @@
       <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12">
+      <c r="G4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>-8.7999999999999995E-2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>-0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
+      <c r="G5" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
         <v>-2.7E-2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="11">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="11">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="K5" s="12">
+      <c r="L5" s="11">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="L5" s="12">
+      <c r="M5" s="11">
         <v>-7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>2E-3</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>2E-3</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="11">
         <v>1E-3</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="11">
         <v>-2.3E-2</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="11">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="11">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>-1E-3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>-1E-3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>-1E-3</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="11">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="11">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="11">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="11">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="11">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="K16" s="12">
+      <c r="L16" s="11">
         <v>0.04</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="11">
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11">
         <v>-3.1E-2</v>
       </c>
-      <c r="I17" s="12">
+      <c r="J17" s="11">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="11">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="K17" s="12">
+      <c r="L17" s="11">
         <v>-5.5E-2</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="11">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="12">
+      <c r="J19" s="11">
         <v>0.02</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="M19" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>-0.06</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>-1.2E-2</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>-0.04</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="I20" s="12">
+      <c r="J20" s="11">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="11">
         <v>-0.218</v>
       </c>
-      <c r="K20" s="12">
+      <c r="L20" s="11">
         <v>-0.27800000000000002</v>
       </c>
-      <c r="L20" s="12">
+      <c r="M20" s="11">
         <v>-0.224</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="L25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="M25" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>935</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>935</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>935</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>935</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>935</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10">
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9">
         <v>935</v>
       </c>
-      <c r="I26" s="10">
+      <c r="J26" s="9">
         <v>935</v>
       </c>
-      <c r="J26" s="10">
+      <c r="K26" s="9">
         <v>878</v>
       </c>
-      <c r="K26" s="10">
+      <c r="L26" s="9">
         <v>934</v>
       </c>
-      <c r="L26" s="10">
+      <c r="M26" s="9">
         <v>934</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>0.50700000000000001</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>0.42599999999999999</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>0.223</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>0.151</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10">
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9">
         <v>0.28199999999999997</v>
       </c>
-      <c r="I27" s="10">
+      <c r="J27" s="9">
         <v>0.27800000000000002</v>
       </c>
-      <c r="J27" s="10">
+      <c r="K27" s="9">
         <v>2.7E-2</v>
       </c>
-      <c r="K27" s="10">
+      <c r="L27" s="9">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L27" s="10">
+      <c r="M27" s="9">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/CorruptionWomen/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57700C-2AEE-B640-814D-E68140B9F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C4138-282C-254A-AC2E-F107683F2966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{0D669908-7E1C-2641-B134-8DCA32760066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -293,23 +293,20 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E455FB9-0662-344D-8D20-0B93894C496E}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G27" activeCellId="1" sqref="G20 G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,28 +661,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="6"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
@@ -720,509 +717,509 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>-6.3E-2</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>-7.8E-2</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="12">
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <v>-0.16</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>-5.6000000000000001E-2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>-1.2E-2</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>-6.6000000000000003E-2</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <v>-0.03</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="12">
         <v>-0.16200000000000001</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="12">
         <v>-0.114</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <v>-0.105</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>0.13300000000000001</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>-0.01</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>-0.01</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>-8.1000000000000003E-2</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <v>-9.4E-2</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>-3.9E-2</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>-9.4E-2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>-5.5E-2</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>-1.4E-2</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <v>-5.8999999999999997E-2</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <v>-0.152</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <v>-0.106</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>-0.105</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>-1.2E-2</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <v>0.02</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="12">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="12">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>-0.05</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>-6.3E-2</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>-0.01</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>-0.01</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>-6.0999999999999999E-2</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <v>-0.03</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="12">
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="12">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="12">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="12">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
@@ -1339,7 +1336,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1353,7 +1350,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1367,7 +1364,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="15"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1405,13 +1402,13 @@
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1420,13 +1417,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -1441,7 +1438,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="15"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1456,7 +1453,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="15"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1487,6 +1484,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="I15:N15"/>
     <mergeCell ref="B6:G6"/>
@@ -1495,11 +1497,6 @@
     <mergeCell ref="I9:N9"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="I12:N12"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
